--- a/StructureDefinition-hn-basis-scedule.xlsx
+++ b/StructureDefinition-hn-basis-scedule.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>HN basis profile for schedule</t>
+    <t>hn-basis-scedule</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T20:45:39+02:00</t>
+    <t>2023-07-24T23:46:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
